--- a/График Захар.xlsx
+++ b/График Захар.xlsx
@@ -56,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -192,75 +201,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +268,16 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,402 +571,402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>43780</v>
-      </c>
-      <c r="B4" s="26" t="str">
+      <c r="A4" s="18">
+        <v>43801</v>
+      </c>
+      <c r="B4" s="21" t="str">
         <f>TEXT(A4,"ддд")</f>
         <v>Пн</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>43783</v>
-      </c>
-      <c r="B9" s="23" t="str">
+      <c r="A9" s="24">
+        <v>43804</v>
+      </c>
+      <c r="B9" s="10" t="str">
         <f>TEXT(A9,"ддд")</f>
         <v>Чт</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -973,11 +979,21 @@
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
@@ -987,6 +1003,11 @@
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D21:H21"/>
@@ -998,21 +1019,6 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/График Захар.xlsx
+++ b/График Захар.xlsx
@@ -226,6 +226,49 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,49 +278,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,28 +571,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -604,369 +604,369 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>43801</v>
-      </c>
-      <c r="B4" s="21" t="str">
+      <c r="A4" s="12">
+        <v>43838</v>
+      </c>
+      <c r="B4" s="15" t="str">
         <f>TEXT(A4,"ддд")</f>
-        <v>Пн</v>
+        <v>Ср</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>43804</v>
-      </c>
-      <c r="B9" s="10" t="str">
+      <c r="A9" s="22">
+        <v>43809</v>
+      </c>
+      <c r="B9" s="25" t="str">
         <f>TEXT(A9,"ддд")</f>
-        <v>Чт</v>
+        <v>Вт</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -979,30 +979,6 @@
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D31:H31"/>
@@ -1019,6 +995,30 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/График Захар.xlsx
+++ b/График Захар.xlsx
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,15 +107,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -201,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,17 +210,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,25 +257,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,7 +558,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,28 +568,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -604,371 +601,380 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>43838</v>
-      </c>
-      <c r="B4" s="15" t="str">
+      <c r="A4" s="15">
+        <v>43843</v>
+      </c>
+      <c r="B4" s="18" t="str">
         <f>TEXT(A4,"ддд")</f>
-        <v>Ср</v>
+        <v>Пн</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>43809</v>
-      </c>
-      <c r="B9" s="25" t="str">
+      <c r="A9" s="15">
+        <v>43846</v>
+      </c>
+      <c r="B9" s="10" t="str">
         <f>TEXT(A9,"ддд")</f>
-        <v>Вт</v>
+        <v>Чт</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -978,7 +984,42 @@
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="51">
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D31:H31"/>
@@ -995,30 +1036,6 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
